--- a/data/GalleryAppTC.xlsx
+++ b/data/GalleryAppTC.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivana\eclipse-workspace\VivifyIdeas\GalleryApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E14A31A-46F4-42FC-B1BD-747288069CC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16D8DC6-318E-4539-AB41-29A58204EB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1035" windowWidth="22770" windowHeight="11760" activeTab="2" xr2:uid="{E77B90CF-7136-4697-ADD7-10F0F9673A20}"/>
+    <workbookView xWindow="1035" yWindow="1035" windowWidth="22770" windowHeight="11760" activeTab="3" xr2:uid="{E77B90CF-7136-4697-ADD7-10F0F9673A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="LogIN" sheetId="2" r:id="rId2"/>
     <sheet name="CreateGallery" sheetId="3" r:id="rId3"/>
     <sheet name="MyGalleryPage" sheetId="5" r:id="rId4"/>
-    <sheet name="GalleryPage" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="102">
   <si>
     <t>Scenario</t>
   </si>
@@ -123,54 +122,6 @@
     <t>http://demo.yo-meals.com/</t>
   </si>
   <si>
-    <t>1)Click on "Sign up" button</t>
-  </si>
-  <si>
-    <t>2)In UserRegistration form enter data</t>
-  </si>
-  <si>
-    <t>The Registration page opens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3)In First Name field enter valid name: </t>
-  </si>
-  <si>
-    <t>Lepa</t>
-  </si>
-  <si>
-    <t>Simon</t>
-  </si>
-  <si>
-    <t>5)in e-mail address field put valide mail:</t>
-  </si>
-  <si>
-    <t>4)In Last Name field enter valid last name:</t>
-  </si>
-  <si>
-    <t>5)In Phone field enter valid phone number:</t>
-  </si>
-  <si>
-    <t>+'38121555888</t>
-  </si>
-  <si>
-    <t>Reg12345</t>
-  </si>
-  <si>
-    <t>7)in Confirm Password field put valid password:</t>
-  </si>
-  <si>
-    <t>6)in Password field put valid password:</t>
-  </si>
-  <si>
-    <t>8)check not a robot check box</t>
-  </si>
-  <si>
-    <t>9)press "Register" button</t>
-  </si>
-  <si>
-    <t>Main Page opens, conformation e-mail is received on e-mail</t>
-  </si>
-  <si>
     <t>Verify if Sign up can be done with correct credentials</t>
   </si>
   <si>
@@ -183,52 +134,15 @@
     <t>N</t>
   </si>
   <si>
-    <t>Page with mesage: You Are Registered Successfully!
-Please Do Login., is shown. Conformation e-mail is received on e-mail</t>
-  </si>
-  <si>
     <t>BR001</t>
   </si>
   <si>
     <t>Loged in</t>
   </si>
   <si>
-    <t>TC016</t>
-  </si>
-  <si>
-    <t>TC017</t>
-  </si>
-  <si>
-    <t>Verify if Password can be changed</t>
-  </si>
-  <si>
-    <t>TC018</t>
-  </si>
-  <si>
-    <t>Verify if Password can be changed with no conformation of password</t>
-  </si>
-  <si>
-    <t>TC019</t>
-  </si>
-  <si>
-    <t>Verify if Password can be changed with different conformation of password</t>
-  </si>
-  <si>
-    <t>Verify if Password can be changed with no Current password entered</t>
-  </si>
-  <si>
-    <t>TC020</t>
-  </si>
-  <si>
-    <t>TC021</t>
-  </si>
-  <si>
     <t>TC022</t>
   </si>
   <si>
-    <t>Verify if Password can be changed with valid Confirm Password with added space</t>
-  </si>
-  <si>
     <t>go to MyAddress Page</t>
   </si>
   <si>
@@ -286,9 +200,6 @@
     <t>new addres is saved</t>
   </si>
   <si>
-    <t>MyAddress</t>
-  </si>
-  <si>
     <t>Verify if LogIn can be done with correct credentials</t>
   </si>
   <si>
@@ -356,13 +267,88 @@
   </si>
   <si>
     <t>expecting that trim of Password is done - no spaces in front pasword should exist</t>
+  </si>
+  <si>
+    <t>Verify if Gallery can be created</t>
+  </si>
+  <si>
+    <t>enter Create Galery page</t>
+  </si>
+  <si>
+    <t>1)In the Title field enter the gallery's title</t>
+  </si>
+  <si>
+    <t>ivana druga</t>
+  </si>
+  <si>
+    <t>2)in Discription field enter discription</t>
+  </si>
+  <si>
+    <t>test gallery</t>
+  </si>
+  <si>
+    <t>https://wallpaperaccess.com/full/284467.jpg</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>3)in Images field enter image's URL</t>
+  </si>
+  <si>
+    <t>5)Click on delete button for next image</t>
+  </si>
+  <si>
+    <t>New gallery is created</t>
+  </si>
+  <si>
+    <t>ivana treća</t>
+  </si>
+  <si>
+    <t>https://wallpaperaccess.com/full/439757.jpg</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>Verify if Gallery With on description can be created</t>
+  </si>
+  <si>
+    <t>Verify if Gallery with multiple images can be created</t>
+  </si>
+  <si>
+    <t>5)in Images field enter image's URL</t>
+  </si>
+  <si>
+    <t>4)click on Add image button</t>
+  </si>
+  <si>
+    <t>field for new Image URL is displayed</t>
+  </si>
+  <si>
+    <t>ivana četvrta</t>
+  </si>
+  <si>
+    <t>https://wallpapercave.com/wp/getBCDo.jpg</t>
+  </si>
+  <si>
+    <t>multiple images</t>
+  </si>
+  <si>
+    <t>MyGalleryPage</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>https://wallpaperaccess.com/full/517300.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +416,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -457,7 +450,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -596,12 +589,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -677,7 +681,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -713,7 +716,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1029,11 +1038,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1F235C-D083-4086-A1BB-177F109E820E}">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,13 +1078,13 @@
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>44</v>
+      <c r="C3" s="37" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1083,53 +1092,53 @@
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>95</v>
+      <c r="C5" s="37" t="s">
+        <v>66</v>
       </c>
       <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="C6" s="40"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>98</v>
+      <c r="C7" s="37" t="s">
+        <v>69</v>
       </c>
       <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="C8" s="38"/>
+      <c r="C8" s="37"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>100</v>
+      <c r="C9" s="37" t="s">
+        <v>71</v>
       </c>
       <c r="D9" s="33"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="C10" s="38"/>
+      <c r="C10" s="37"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>45</v>
+      <c r="C11" s="37" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,19 +1155,19 @@
       <c r="A14" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="37"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>14</v>
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="D15" s="33"/>
     </row>
@@ -1168,11 +1177,11 @@
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>53</v>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>91</v>
       </c>
       <c r="D17" s="33"/>
     </row>
@@ -1180,86 +1189,68 @@
       <c r="A18" s="3"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>55</v>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>92</v>
       </c>
       <c r="D19" s="33"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="33"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A22" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="39"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="B23" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>58</v>
+        <v>100</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>14</v>
       </c>
       <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="5"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="33"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="A26" s="5"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="5"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="40"/>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="33"/>
+      <c r="A28" s="5"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
@@ -1273,128 +1264,128 @@
       <c r="A32" s="5"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
       <c r="C48" s="6"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+      <c r="A49" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C49" s="6"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="C50" s="6"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
+      <c r="A51" s="3"/>
       <c r="C51" s="6"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="C52" s="6"/>
+      <c r="A52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
+      <c r="A53" s="3"/>
+      <c r="C53" s="6"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="C54" s="6"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
+      <c r="C56" s="6"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
+      <c r="A57" s="4"/>
       <c r="C57" s="6"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+      <c r="A58" s="4"/>
+      <c r="C58" s="6"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+      <c r="A59" s="4"/>
       <c r="C59" s="6"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
+      <c r="A60" s="4"/>
+      <c r="C60" s="6"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
       <c r="C61" s="6"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
       <c r="C62" s="6"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1430,12 +1421,12 @@
       <c r="C70" s="6"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
       <c r="C71" s="6"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="C72" s="6"/>
+      <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
@@ -1450,79 +1441,55 @@
       <c r="C75" s="6"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
       <c r="C76" s="6"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
       <c r="C77" s="6"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="C80" s="6"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="C81" s="6"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="6"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="C83" s="6"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="C84" s="6"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="6"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D93" s="7"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="6"/>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="6"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C131" s="6"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="15"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="15"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-    </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D151" s="7"/>
-    </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D152" s="7"/>
-    </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D153" s="7"/>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="7"/>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="6"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="6"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C125" s="6"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="15"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="7"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="7"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1536,7 +1503,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,22 +1553,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1609,7 +1576,7 @@
       <c r="B3" s="23"/>
       <c r="C3" s="21"/>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="22"/>
@@ -1620,7 +1587,7 @@
       <c r="C4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="48" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="7"/>
@@ -1629,18 +1596,18 @@
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="23"/>
-      <c r="C5" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>87</v>
+      <c r="C5" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23"/>
       <c r="C6" s="25"/>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1655,16 +1622,16 @@
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1690,29 +1657,29 @@
         <v>7</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>
       <c r="C12" s="21"/>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="22"/>
@@ -1725,26 +1692,26 @@
       <c r="C13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="49" t="s">
-        <v>46</v>
+      <c r="D13" s="48" t="s">
+        <v>30</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
-      <c r="C14" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>87</v>
+      <c r="C14" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
       <c r="C15" s="25"/>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1759,29 +1726,29 @@
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
-      <c r="D18" s="45"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="46"/>
+        <v>68</v>
+      </c>
+      <c r="F18" s="45"/>
       <c r="G18" s="6" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
@@ -1791,9 +1758,9 @@
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="37"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="37"/>
+      <c r="G19" s="36"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
@@ -1810,29 +1777,29 @@
         <v>8</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="23"/>
       <c r="C22" s="21"/>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="22"/>
@@ -1843,7 +1810,7 @@
       <c r="C23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="48" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="7"/>
@@ -1851,18 +1818,18 @@
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="23"/>
-      <c r="C24" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>87</v>
+      <c r="C24" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="23"/>
       <c r="C25" s="25"/>
       <c r="D25" s="4" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1877,16 +1844,16 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1894,11 +1861,11 @@
       <c r="C28" s="23"/>
       <c r="D28" s="7"/>
       <c r="E28" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="46"/>
+        <v>68</v>
+      </c>
+      <c r="F28" s="45"/>
       <c r="G28" s="6" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1913,37 +1880,37 @@
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
     </row>
     <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="23"/>
       <c r="C32" s="21"/>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="22"/>
@@ -1954,7 +1921,7 @@
       <c r="C33" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="48" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="7"/>
@@ -1962,18 +1929,18 @@
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="23"/>
-      <c r="C34" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>87</v>
+      <c r="C34" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="23"/>
       <c r="C35" s="25"/>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1988,19 +1955,19 @@
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I37" s="54" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+      <c r="I37" s="53" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -2010,10 +1977,10 @@
       <c r="E38" s="7"/>
       <c r="F38" s="22"/>
       <c r="G38" s="6" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2028,26 +1995,26 @@
       <c r="I39" s="9"/>
     </row>
     <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="50" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="I41" s="12"/>
     </row>
@@ -2055,7 +2022,7 @@
       <c r="B42" s="23"/>
       <c r="C42" s="21"/>
       <c r="D42" s="7" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="22"/>
@@ -2070,20 +2037,20 @@
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="23"/>
-      <c r="C44" s="53" t="s">
-        <v>101</v>
+      <c r="C44" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="F44" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2104,11 +2071,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6FD613-A997-4E59-9696-4356B570E0EC}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,7 +2084,7 @@
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="30.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
@@ -2157,9 +2124,15 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="7"/>
+      <c r="B2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="22"/>
       <c r="G2" s="7"/>
@@ -2168,31 +2141,49 @@
       <c r="A3" s="33"/>
       <c r="B3" s="23"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="22"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="C4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="22"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="23"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23"/>
       <c r="C6" s="25"/>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="38"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="55"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>83</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="22"/>
       <c r="G7" s="7"/>
@@ -2200,23 +2191,41 @@
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
       <c r="C8" s="33"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="7"/>
+      <c r="C9" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
-      <c r="D10" s="44"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="7"/>
       <c r="F10" s="22"/>
       <c r="G10" s="7"/>
@@ -2224,79 +2233,315 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
-      <c r="D11" s="43"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="7"/>
       <c r="F11" s="22"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+    </row>
+    <row r="14" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="22"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
       <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="22"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="C16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="C17" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="25"/>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>89</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="22"/>
-    </row>
-    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="22"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="25"/>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="37"/>
+      <c r="C30" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D39" s="58"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{33563AA9-6DAD-4683-A79A-BA3A1502F2D5}"/>
+    <hyperlink ref="C17" r:id="rId2" xr:uid="{A610B7A3-B309-4442-829F-C00F6AD6B0E3}"/>
+    <hyperlink ref="C28" r:id="rId3" xr:uid="{6C99BCAD-609A-496B-83BC-E9DA99FC767B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2304,7 +2549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300AEA43-3793-4A8B-8827-B96A2AFFF8F9}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
@@ -2352,7 +2597,7 @@
     </row>
     <row r="2" spans="1:9" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>14</v>
@@ -2361,7 +2606,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="22"/>
@@ -2372,7 +2617,7 @@
       <c r="B3" s="23"/>
       <c r="C3" s="21"/>
       <c r="D3" s="4" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="22"/>
@@ -2384,7 +2629,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="22"/>
@@ -2392,27 +2637,27 @@
     </row>
     <row r="5" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="23"/>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="23"/>
       <c r="C6" s="25"/>
       <c r="D6" s="7" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
       <c r="C7" s="23" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="22"/>
@@ -2422,19 +2667,19 @@
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="7" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="22"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
       <c r="C9" s="23" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="7"/>
@@ -2445,19 +2690,19 @@
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="7" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="22"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
-      <c r="D11" s="43"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="7"/>
       <c r="F11" s="22"/>
       <c r="G11" s="7"/>
@@ -2466,13 +2711,13 @@
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="7" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="22"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2487,7 +2732,7 @@
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="7" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="22"/>
@@ -2497,7 +2742,7 @@
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="6" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="22"/>
@@ -2507,7 +2752,7 @@
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="7" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="22"/>
@@ -2517,7 +2762,7 @@
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="6" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="22"/>
@@ -2527,7 +2772,7 @@
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="7" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="22"/>
@@ -2552,19 +2797,19 @@
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="38"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="46" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="45" t="s">
-        <v>81</v>
+      <c r="G21" s="44" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2603,258 +2848,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B74143F-8ECE-4AFD-B702-5EE95EA4520D}">
-  <dimension ref="A1:I19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="120.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="21"/>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="22"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="25"/>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" ht="270" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="22"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{8EAC9627-9B24-4554-B45C-A9445EB402FE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/GalleryAppTC.xlsx
+++ b/data/GalleryAppTC.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivana\eclipse-workspace\VivifyIdeas\GalleryApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16D8DC6-318E-4539-AB41-29A58204EB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76025B6-BA35-4C44-A25C-1EDD83636A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1035" windowWidth="22770" windowHeight="11760" activeTab="3" xr2:uid="{E77B90CF-7136-4697-ADD7-10F0F9673A20}"/>
+    <workbookView xWindow="1035" yWindow="1035" windowWidth="22770" windowHeight="11760" xr2:uid="{E77B90CF-7136-4697-ADD7-10F0F9673A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="LogIN" sheetId="2" r:id="rId2"/>
     <sheet name="CreateGallery" sheetId="3" r:id="rId3"/>
-    <sheet name="MyGalleryPage" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="76">
   <si>
     <t>Scenario</t>
   </si>
@@ -77,15 +76,6 @@
     <t>Test scenario 2:</t>
   </si>
   <si>
-    <t>Test scenario 3:</t>
-  </si>
-  <si>
-    <t>Verify if Personal Informations can be changed</t>
-  </si>
-  <si>
-    <t>Test scenario 4:</t>
-  </si>
-  <si>
     <t>Preconditions</t>
   </si>
   <si>
@@ -119,9 +109,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>http://demo.yo-meals.com/</t>
-  </si>
-  <si>
     <t>Verify if Sign up can be done with correct credentials</t>
   </si>
   <si>
@@ -140,66 +127,6 @@
     <t>Loged in</t>
   </si>
   <si>
-    <t>TC022</t>
-  </si>
-  <si>
-    <t>go to MyAddress Page</t>
-  </si>
-  <si>
-    <t>in the Address Type field enter:</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>in the Name field enter:</t>
-  </si>
-  <si>
-    <t>Same Smith</t>
-  </si>
-  <si>
-    <t>from the Choose Your Country dropdown list choose:</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>from the Choose Your State dropdown list choose:</t>
-  </si>
-  <si>
-    <t>there is no states to choose from</t>
-  </si>
-  <si>
-    <t>from the Choose Your City dropdown list choose:</t>
-  </si>
-  <si>
-    <t>from the Choose Your Locality dropdown list choose:</t>
-  </si>
-  <si>
-    <t>there is no cities to choose from</t>
-  </si>
-  <si>
-    <t>there is no locality to choose from</t>
-  </si>
-  <si>
-    <t>in the Address Lane 1 field enter:</t>
-  </si>
-  <si>
-    <t>Orange street 12</t>
-  </si>
-  <si>
-    <t>in the Phone field enter:</t>
-  </si>
-  <si>
-    <t>Mango street 8536</t>
-  </si>
-  <si>
-    <t>press Save Changes</t>
-  </si>
-  <si>
-    <t>new addres is saved</t>
-  </si>
-  <si>
     <t>Verify if LogIn can be done with correct credentials</t>
   </si>
   <si>
@@ -333,12 +260,6 @@
   </si>
   <si>
     <t>multiple images</t>
-  </si>
-  <si>
-    <t>MyGalleryPage</t>
-  </si>
-  <si>
-    <t>TC009</t>
   </si>
   <si>
     <t>https://wallpaperaccess.com/full/517300.jpg</t>
@@ -424,7 +345,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,19 +354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66FF33"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -631,8 +540,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -679,9 +586,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -708,8 +612,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -723,6 +625,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1040,9 +944,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1F235C-D083-4086-A1BB-177F109E820E}">
   <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,67 +982,68 @@
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>28</v>
+      <c r="C3" s="34" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
+      <c r="B4" s="54"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="33"/>
+      <c r="C5" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="C6" s="39"/>
+      <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="33"/>
+      <c r="C7" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="C8" s="37"/>
+      <c r="C8" s="34"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="33"/>
+      <c r="C9" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="C10" s="37"/>
+      <c r="C10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>29</v>
+      <c r="C11" s="34" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1152,24 +1057,24 @@
       <c r="A13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="34"/>
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="33"/>
+      <c r="C15" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -1178,12 +1083,12 @@
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="33"/>
+        <v>60</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -1192,12 +1097,12 @@
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="33"/>
+        <v>66</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -1207,252 +1112,181 @@
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="C21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="39"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="33"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="C24" s="6"/>
+      <c r="C24"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="C25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="C26" s="6"/>
+      <c r="C26"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="C27" s="6"/>
+      <c r="C27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="C28" s="6"/>
+      <c r="C28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="C29" s="6"/>
+      <c r="C29"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="C30" s="6"/>
+      <c r="C30"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="C31" s="6"/>
+      <c r="C31"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="C51" s="6"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="C62" s="6"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="C64" s="6"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="C65" s="6"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="C67" s="6"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="C68" s="6"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="C69" s="6"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="C70" s="6"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C71" s="6"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="7"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="C74" s="6"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="C75" s="6"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="6"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="C77" s="6"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="C78" s="6"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C79" s="6"/>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79"/>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D87" s="7"/>
@@ -1467,17 +1301,17 @@
       <c r="C125" s="6"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="15"/>
+      <c r="A127" s="13"/>
       <c r="C127" s="6"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="15"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
+      <c r="A128" s="13"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
@@ -1520,359 +1354,359 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="19"/>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="D4" s="45" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="21"/>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="22"/>
+      <c r="F4" s="20"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>58</v>
+      <c r="B5" s="21"/>
+      <c r="C5" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="23"/>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="4"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="7" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>26</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="19"/>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="30"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>30</v>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>26</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>58</v>
+      <c r="B14" s="21"/>
+      <c r="C14" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="23"/>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="4"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="7" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>26</v>
+        <v>43</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="44"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="45"/>
+        <v>44</v>
+      </c>
+      <c r="F18" s="42"/>
       <c r="G18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+        <v>44</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="36"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="31"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>26</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="19"/>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>25</v>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
-      <c r="C24" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>58</v>
+      <c r="B24" s="21"/>
+      <c r="C24" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
-      <c r="C25" s="25"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="4"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="7" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>26</v>
+        <v>43</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="7"/>
       <c r="E28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="45"/>
+        <v>44</v>
+      </c>
+      <c r="F28" s="42"/>
       <c r="G28" s="6" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -1880,177 +1714,177 @@
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
     </row>
     <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>26</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
-      <c r="C32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="19"/>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="22"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>25</v>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="22"/>
+      <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
-      <c r="C34" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>58</v>
+      <c r="B34" s="21"/>
+      <c r="C34" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
-      <c r="C35" s="25"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="23"/>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="4"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="22"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="7" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I37" s="53" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="I37" s="48" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="22"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="6" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="27"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="25"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
     <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>26</v>
-      </c>
       <c r="G41" s="7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="23"/>
-      <c r="C42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="7" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="22"/>
+      <c r="F42" s="20"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="23"/>
-      <c r="C43" s="23" t="s">
-        <v>24</v>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="E43" s="7"/>
-      <c r="F43" s="22"/>
+      <c r="F43" s="20"/>
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="23"/>
-      <c r="C44" s="52" t="s">
-        <v>72</v>
+      <c r="B44" s="21"/>
+      <c r="C44" s="47" t="s">
+        <v>48</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>26</v>
+        <v>41</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2074,8 +1908,8 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,447 +1926,447 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="20"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="21"/>
+      <c r="C5" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="21"/>
+      <c r="C6" s="23"/>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="34"/>
+      <c r="C7" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="21"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="22"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="25"/>
-      <c r="D6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="37"/>
-      <c r="C7" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="57" t="s">
-        <v>95</v>
+      <c r="G8" s="52" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>86</v>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>26</v>
+        <v>63</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="43"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="20"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="21"/>
+      <c r="C17" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="21"/>
+      <c r="C18" s="23"/>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="34"/>
+      <c r="C19" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="22"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
-      <c r="C18" s="25"/>
-      <c r="D18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="37"/>
-      <c r="C19" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="57" t="s">
-        <v>95</v>
+      <c r="G20" s="52" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
-      <c r="C21" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>86</v>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>26</v>
+        <v>63</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="43"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="27"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="20"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="21"/>
+      <c r="C28" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="21"/>
+      <c r="C29" s="23"/>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="34"/>
+      <c r="C30" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="21"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="22"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
-      <c r="C28" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
-      <c r="C29" s="25"/>
-      <c r="D29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="37"/>
-      <c r="C30" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="57" t="s">
-        <v>95</v>
+      <c r="G31" s="52" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
-      <c r="C32" s="23" t="s">
-        <v>78</v>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="22"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="56" t="s">
-        <v>97</v>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="51" t="s">
+        <v>73</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="22"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="57" t="s">
-        <v>95</v>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="43" t="s">
-        <v>86</v>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>26</v>
+        <v>63</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="27"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="25"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D39" s="58"/>
+      <c r="D39" s="53"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2543,309 +2377,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300AEA43-3793-4A8B-8827-B96A2AFFF8F9}">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="22"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19">
-        <v>555123321</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="37"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="22"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/GalleryAppTC.xlsx
+++ b/data/GalleryAppTC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivana\eclipse-workspace\VivifyIdeas\GalleryApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76025B6-BA35-4C44-A25C-1EDD83636A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BB7849-4A53-4726-9C7D-46AE9A4E39FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1035" windowWidth="22770" windowHeight="11760" xr2:uid="{E77B90CF-7136-4697-ADD7-10F0F9673A20}"/>
+    <workbookView xWindow="1110" yWindow="945" windowWidth="22770" windowHeight="11760" activeTab="1" xr2:uid="{E77B90CF-7136-4697-ADD7-10F0F9673A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="74">
   <si>
     <t>Scenario</t>
   </si>
@@ -112,18 +112,12 @@
     <t>Verify if Sign up can be done with correct credentials</t>
   </si>
   <si>
-    <t>Verify if Sign up can be done with emptyt credentials</t>
-  </si>
-  <si>
     <t>mail@mail.com</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>BR001</t>
-  </si>
-  <si>
     <t>Loged in</t>
   </si>
   <si>
@@ -217,9 +211,6 @@
     <t>https://wallpaperaccess.com/full/284467.jpg</t>
   </si>
   <si>
-    <t>TC007</t>
-  </si>
-  <si>
     <t>3)in Images field enter image's URL</t>
   </si>
   <si>
@@ -235,9 +226,6 @@
     <t>https://wallpaperaccess.com/full/439757.jpg</t>
   </si>
   <si>
-    <t>TC008</t>
-  </si>
-  <si>
     <t>Verify if Gallery With on description can be created</t>
   </si>
   <si>
@@ -263,6 +251,12 @@
   </si>
   <si>
     <t>https://wallpaperaccess.com/full/517300.jpg</t>
+  </si>
+  <si>
+    <t>BR00A</t>
+  </si>
+  <si>
+    <t>can not assert</t>
   </si>
 </sst>
 </file>
@@ -514,7 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -611,7 +605,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -626,7 +619,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -942,11 +937,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1F235C-D083-4086-A1BB-177F109E820E}">
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,9 +977,9 @@
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="53" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -993,15 +988,15 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="54"/>
+      <c r="B4" s="53"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="31"/>
     </row>
@@ -1015,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="31"/>
     </row>
@@ -1023,93 +1018,79 @@
       <c r="A8" s="3"/>
       <c r="C8" s="34"/>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="55" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="34"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="31"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="C10" s="34"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="46" t="s">
+      <c r="C12" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="34"/>
-      <c r="E14" s="12"/>
+      <c r="C14" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="3"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="31"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="31"/>
+      <c r="C16" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="31"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="C20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21"/>
@@ -1279,51 +1260,42 @@
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79"/>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D87" s="7"/>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="6"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="6"/>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="7"/>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="6"/>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="6"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C122" s="6"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="13"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C125" s="6"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="13"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="13"/>
-      <c r="B128" s="13"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D145" s="7"/>
-    </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D146" s="7"/>
-    </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D147" s="7"/>
+      <c r="A127" s="4"/>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D142" s="7"/>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="7"/>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1335,9 +1307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D80E559-8175-4698-AD02-0F20EBCBFC5D}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41:C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,22 +1359,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1410,7 +1382,7 @@
       <c r="B3" s="21"/>
       <c r="C3" s="19"/>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="20"/>
@@ -1430,18 +1402,18 @@
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="21"/>
-      <c r="C5" s="47" t="s">
-        <v>48</v>
+      <c r="C5" s="46" t="s">
+        <v>46</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1456,16 +1428,16 @@
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1491,29 +1463,29 @@
         <v>7</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="19"/>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="20"/>
@@ -1527,25 +1499,25 @@
         <v>21</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
-      <c r="C14" s="47" t="s">
-        <v>48</v>
+      <c r="C14" s="46" t="s">
+        <v>46</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1560,16 +1532,16 @@
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1578,11 +1550,11 @@
       <c r="C18" s="21"/>
       <c r="D18" s="41"/>
       <c r="E18" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
@@ -1611,29 +1583,29 @@
         <v>8</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="21"/>
       <c r="C22" s="19"/>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="20"/>
@@ -1652,18 +1624,18 @@
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
-      <c r="C24" s="47" t="s">
-        <v>48</v>
+      <c r="C24" s="46" t="s">
+        <v>46</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="23"/>
       <c r="D25" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1678,16 +1650,16 @@
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1695,11 +1667,11 @@
       <c r="C28" s="21"/>
       <c r="D28" s="7"/>
       <c r="E28" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1718,33 +1690,31 @@
       <c r="D30" s="38"/>
     </row>
     <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>47</v>
+      <c r="A31" s="35"/>
+      <c r="B31" s="54" t="s">
+        <v>45</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F31" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="21"/>
       <c r="C32" s="19"/>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="20"/>
@@ -1763,18 +1733,18 @@
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="21"/>
-      <c r="C34" s="47" t="s">
-        <v>48</v>
+      <c r="C34" s="46" t="s">
+        <v>46</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="21"/>
       <c r="C35" s="23"/>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1789,19 +1759,19 @@
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="48" t="s">
-        <v>28</v>
+        <v>41</v>
+      </c>
+      <c r="I37" s="47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -1811,10 +1781,10 @@
       <c r="E38" s="7"/>
       <c r="F38" s="20"/>
       <c r="G38" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1829,26 +1799,27 @@
       <c r="I39" s="9"/>
     </row>
     <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>38</v>
+      <c r="A41" s="53"/>
+      <c r="B41" s="54" t="s">
+        <v>36</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="H41" s="47" t="s">
+        <v>73</v>
       </c>
       <c r="I41" s="12"/>
     </row>
@@ -1856,7 +1827,7 @@
       <c r="B42" s="21"/>
       <c r="C42" s="19"/>
       <c r="D42" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="20"/>
@@ -1871,20 +1842,20 @@
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="21"/>
-      <c r="C44" s="47" t="s">
-        <v>48</v>
+      <c r="C44" s="46" t="s">
+        <v>46</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F44" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1909,7 +1880,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,16 +1927,16 @@
     </row>
     <row r="2" spans="1:9" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="20"/>
@@ -1976,7 +1947,7 @@
       <c r="B3" s="21"/>
       <c r="C3" s="19"/>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="20"/>
@@ -1988,7 +1959,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="20"/>
@@ -1996,27 +1967,27 @@
     </row>
     <row r="5" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="21"/>
-      <c r="C5" s="47" t="s">
-        <v>48</v>
+      <c r="C5" s="46" t="s">
+        <v>46</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="21"/>
       <c r="C6" s="23"/>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="34"/>
       <c r="C7" s="43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="20"/>
@@ -2026,34 +1997,34 @@
       <c r="B8" s="21"/>
       <c r="C8" s="31"/>
       <c r="D8" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>67</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="52" t="s">
-        <v>71</v>
+      <c r="G8" s="51" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="21"/>
       <c r="C9" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2092,16 +2063,16 @@
     </row>
     <row r="14" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="20"/>
@@ -2112,7 +2083,7 @@
       <c r="B15" s="21"/>
       <c r="C15" s="19"/>
       <c r="D15" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="20"/>
@@ -2124,7 +2095,7 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="20"/>
@@ -2132,8 +2103,8 @@
     </row>
     <row r="17" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21"/>
-      <c r="C17" s="47" t="s">
-        <v>48</v>
+      <c r="C17" s="46" t="s">
+        <v>46</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -2141,16 +2112,16 @@
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="34"/>
       <c r="C19" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>65</v>
+        <v>27</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>62</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="20"/>
@@ -2160,34 +2131,34 @@
       <c r="B20" s="21"/>
       <c r="C20" s="31"/>
       <c r="D20" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>67</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="52" t="s">
-        <v>71</v>
+      <c r="G20" s="51" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
       <c r="C21" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2202,7 +2173,7 @@
       <c r="A23" s="9"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="50"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="25"/>
       <c r="F23" s="26"/>
       <c r="G23" s="25"/>
@@ -2218,16 +2189,16 @@
     </row>
     <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="20"/>
@@ -2238,7 +2209,7 @@
       <c r="B26" s="21"/>
       <c r="C26" s="19"/>
       <c r="D26" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="20"/>
@@ -2250,7 +2221,7 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="20"/>
@@ -2258,27 +2229,27 @@
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="21"/>
-      <c r="C28" s="47" t="s">
-        <v>48</v>
+      <c r="C28" s="46" t="s">
+        <v>46</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="23"/>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="34"/>
       <c r="C30" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="51" t="s">
-        <v>75</v>
+        <v>27</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>71</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="20"/>
@@ -2288,25 +2259,25 @@
       <c r="B31" s="21"/>
       <c r="C31" s="31"/>
       <c r="D31" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="52" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>67</v>
       </c>
       <c r="F31" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="52" t="s">
-        <v>71</v>
+      <c r="G31" s="51" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="21"/>
       <c r="C32" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="20"/>
@@ -2315,8 +2286,8 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="51" t="s">
-        <v>73</v>
+      <c r="D33" s="50" t="s">
+        <v>69</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="20"/>
@@ -2326,39 +2297,39 @@
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="52" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>67</v>
       </c>
       <c r="F34" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="52" t="s">
-        <v>71</v>
+      <c r="G34" s="51" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
-      <c r="D36" s="50"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="25"/>
       <c r="F36" s="26"/>
       <c r="G36" s="25"/>
@@ -2366,7 +2337,7 @@
       <c r="I36" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D39" s="53"/>
+      <c r="D39" s="52"/>
     </row>
   </sheetData>
   <hyperlinks>
